--- a/res/ブック1.xlsx
+++ b/res/ブック1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>あ</t>
     <phoneticPr fontId="1"/>
@@ -40,15 +40,11 @@
     <t>お</t>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>あいうえお</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -422,7 +418,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -452,21 +448,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>1.2</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/res/ブック1.xlsx
+++ b/res/ブック1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>あ</t>
     <phoneticPr fontId="1"/>
@@ -38,6 +38,10 @@
   </si>
   <si>
     <t>お</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AT13</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -415,37 +419,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:AU14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="AV14" sqref="AV14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="2.33203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="2" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="45" max="47" width="2.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:47">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:47">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:47">
       <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:47">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:47">
       <c r="B5" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47">
+      <c r="AS12">
+        <v>1</v>
+      </c>
+      <c r="AT12">
+        <v>2</v>
+      </c>
+      <c r="AU12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47">
+      <c r="AS13">
+        <v>4</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47">
+      <c r="AS14">
+        <v>6</v>
+      </c>
+      <c r="AT14">
+        <v>7</v>
+      </c>
+      <c r="AU14">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
